--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal.Kipkemoi\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>filePath</t>
   </si>
   <si>
-    <t>C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -41,13 +38,16 @@
     <t>Perfect and Precise</t>
   </si>
   <si>
-    <t>polr32</t>
+    <t>C:\Users\Pascal.Kipkemoi\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+  </si>
+  <si>
+    <t>polr780</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,36 +358,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>

--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>filePath</t>
   </si>
   <si>
-    <t>C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>polr32</t>
+  </si>
+  <si>
+    <t>C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
   </si>
 </sst>
 </file>
@@ -362,35 +362,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Perfect and Precise</t>
-  </si>
-  <si>
     <t>polr32</t>
   </si>
   <si>
-    <t>C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+    <t>C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+  </si>
+  <si>
+    <t>Agile Testing</t>
   </si>
 </sst>
 </file>
@@ -362,16 +362,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,15 +382,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>filePath</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\Kennedy\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
   </si>
 </sst>
 </file>
@@ -361,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,4 +400,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="88" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,10 +38,10 @@
     <t>polr32</t>
   </si>
   <si>
-    <t>C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
-  </si>
-  <si>
     <t>Agile Testing</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,10 +384,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>filePath</t>
   </si>
@@ -43,9 +42,6 @@
   </si>
   <si>
     <t>C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\Kennedy\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
   </si>
 </sst>
 </file>
@@ -365,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,45 +396,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -41,7 +41,7 @@
     <t>polr32</t>
   </si>
   <si>
-    <t>C:\Users\stellah.ireri\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+    <t>C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -362,7 +363,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +384,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">

--- a/Data Files/File Upload Center/File Upload Center.xlsx
+++ b/Data Files/File Upload Center/File Upload Center.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\Data Files\File Upload Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,10 +38,10 @@
     <t>polr32</t>
   </si>
   <si>
-    <t>Agile Testing</t>
-  </si>
-  <si>
-    <t>C:\Users\Admin\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+    <t>C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\FilesToUpload\Mpesalatest File.csv</t>
+  </si>
+  <si>
+    <t>Perfect and Precise</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,10 +384,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
